--- a/report/재료비 활용 희망 사항.xlsx
+++ b/report/재료비 활용 희망 사항.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ooo95\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ooo95\Desktop\Git\STeam\GSKHU\report\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F77B9A-A575-40EC-AC37-5017AFABD9B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6D9BF1-0BC0-4792-A6A3-47874ECE82FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14925" yWindow="7185" windowWidth="21600" windowHeight="11385" xr2:uid="{DFCA7BF8-54D8-4ACE-A44C-6FDADFD1FEF5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DFCA7BF8-54D8-4ACE-A44C-6FDADFD1FEF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>구매 종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,109 +49,76 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3D 모델</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.turbosquid.com/ko/3d-models/scroll-mitzvah-3d-1347211</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TURBOSQUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스크롤 애니메이션 미츠 비시 3D 모델</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>만화 토끼 3D 모델</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.turbosquid.com/ko/3d-models/cartoon-rabbit-3d-1408204</t>
-  </si>
-  <si>
-    <t>15$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://free3d.com/ko/3d-model/lowpoly-treasure-chest-699.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대표성 보물 상자 3D 모델</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Free3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니티 에셋(GUI)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quest Journal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://assetstore.unity.com/packages/2d/gui/icons/quest-journal-53330</t>
-  </si>
-  <si>
     <t>unity Asset Store</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유니티 에셋(Sound)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paper, Books, And Scrolls</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://assetstore.unity.com/packages/audio/sound-fx/paper-books-and-scrolls-40421</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>희망 사항(아직 찾지 못함)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효과음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버 비용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AR DataBase 관련 Utility(미정)</t>
+    <t>개발자 계정 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글 플레이스토어 계발자 등록 계정 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>google play</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unity Asset(GUI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shift - Complete Sci-Fi UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/tools/gui/shift-complete-sci-fi-ui-157943</t>
+  </si>
+  <si>
+    <t>Sci-Fi Sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/audio/sound-fx/sci-fi-sounds-22391</t>
+  </si>
+  <si>
+    <t>AR+GPS Location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/tools/integration/ar-gps-location-134882</t>
+  </si>
+  <si>
+    <t>Sci-Fi Drone Robot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/characters/robots/sci-fi-drone-robot-131627</t>
+  </si>
+  <si>
+    <t>https://schemeflowcharts.xyz/mobile/</t>
+  </si>
+  <si>
+    <t>scheme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.yes24.com/Product/Goods/78493491?scode=032&amp;OzSrank=3</t>
+  </si>
+  <si>
+    <t>http://www.yes24.com/Product/Goods/77724190</t>
+  </si>
+  <si>
+    <t>구글 클라우드 책</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mysql 책</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -159,6 +126,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="180" formatCode="\$#,##0.00;[Red]\$#,##0.00"/>
+    <numFmt numFmtId="181" formatCode="&quot;₩&quot;#,##0;[Red]&quot;₩&quot;#,##0"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -216,12 +187,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -244,54 +215,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -301,7 +224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -314,38 +237,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -662,17 +606,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176E0BDD-49AD-4E37-B040-549D7EED4B67}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="35.625" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.25" style="5" customWidth="1"/>
     <col min="4" max="4" width="15.75" customWidth="1"/>
     <col min="5" max="5" width="98.125" customWidth="1"/>
   </cols>
@@ -688,154 +632,208 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="18">
+        <v>25</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="B3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="12">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="12">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="12">
+        <v>79</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="C6" s="18">
+        <v>24</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="12">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="13">
+        <f>SUM(C2:C7)</f>
+        <v>196</v>
+      </c>
+      <c r="D8" s="15">
+        <f>C8*1250</f>
+        <v>245000</v>
+      </c>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5">
+        <v>30600</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5">
+        <v>27000</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>30</v>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7">
+        <f>SUM(C10:C11)</f>
+        <v>57600</v>
+      </c>
+      <c r="D12" s="15">
+        <f>D8+C12</f>
+        <v>302600</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="13">
+        <f>SUM(C3:C7)</f>
+        <v>171</v>
+      </c>
+      <c r="D14" s="15">
+        <f>C14*1250</f>
+        <v>213750</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="D15" s="20">
+        <f>D14+C12</f>
+        <v>271350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="21">
+        <f>SUM(C3:C5,C7)</f>
+        <v>147</v>
+      </c>
+      <c r="D16" s="20">
+        <f>C16*1250</f>
+        <v>183750</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="20">
+        <f>D16+C12</f>
+        <v>241350</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A4"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{A30D98D1-81B8-459F-BE61-C1DD50D49396}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{4D81CC1F-EE27-4464-91DF-D6AC03948877}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{2F49EB3B-D168-4A6B-BF01-2A977CD5F323}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{BED5A27B-EEA1-4F60-8F03-C6BDE7F526AE}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{E82525EB-AFEF-4765-8DC6-87882BD12661}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{73A837A8-0606-4C47-8CD3-3F44EB02FF2E}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{FEFE5D09-5286-4885-BA26-CBF7C3C5F779}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{D20C824D-A5D2-45C9-93D8-1FBD267CB710}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{761634AC-BC54-4FDD-A4C6-4CF8DB376AF2}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{3C6BB883-B922-440F-9E93-893A4CA04AC0}"/>
+    <hyperlink ref="E10" r:id="rId6" xr:uid="{759235ED-01F0-44F9-82FB-206956A82607}"/>
+    <hyperlink ref="E11" r:id="rId7" xr:uid="{DB72A041-CAA1-479F-A36C-9450134294CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>